--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report008_RptBudgetRequestExpensesDetail_Template.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report008_RptBudgetRequestExpensesDetail_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3540" windowWidth="21648" windowHeight="13368"/>
+    <workbookView xWindow="2832" yWindow="4452" windowWidth="21648" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="8" r:id="rId1"/>
@@ -439,6 +439,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -576,6 +579,7 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>